--- a/Cenários Site Adopet.xlsx
+++ b/Cenários Site Adopet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b169d1433ded32a3/Área de Trabalho/Carreia Teste/Curso-Alura-QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{D27B2583-B550-4A04-BC8E-FF88AA5B0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E163FE7-5312-4889-9682-AAEFE8A1503A}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{D27B2583-B550-4A04-BC8E-FF88AA5B0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2F8B730-C95D-4584-B903-4C045926D2CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ADC66806-1CC5-4315-B284-C5D538311E4C}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>001-Login</t>
   </si>
   <si>
-    <t>002-Cadastro</t>
-  </si>
-  <si>
     <t xml:space="preserve">CT002.001-Verificar menssagens de erro quando o usuário não preencher os campos do formulário e clicar em cadastrar </t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   <si>
     <t xml:space="preserve">CT002.001-Verificar se o cadastrado de um usuário é relizado com sucesso 
     </t>
-  </si>
-  <si>
-    <t>003-Home</t>
   </si>
   <si>
     <t xml:space="preserve">CT001.001-Verificar se o acesso de um usuário já cadastrado é efetuado com sucesso 
@@ -113,7 +107,302 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">que o usuário esteja na tela de login
+      <t xml:space="preserve">que o usuário clique em "Quero me cadastrar"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Quando </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">digitar os os campos email, nome, senha e confirmar sua senha
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">clicar no botão "Cadastrar"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eentão</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> o usuário deve receber a menssagem de cadastro realizado com sucesso e ser redirecionado para a página de adoção de pets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">que o usuário clique em "Já tenho conta"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> inserir um usuário e senha válidos 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clicar em "Entrar"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Então</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ele deve ser redirecionado para a página de adoção de pets</t>
+    </r>
+  </si>
+  <si>
+    <t>002-Register</t>
+  </si>
+  <si>
+    <t>003-Icon</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que o usuário clique no icone home
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Então </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deve ser redirecionado para a página de login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o usuário clique no icone de menssagem
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Então </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deve ser redirecionado para a página de login</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">que o usuário clique em "Já tenho conta"
 </t>
     </r>
     <r>
@@ -147,7 +436,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Eentão </t>
+      <t xml:space="preserve">Então </t>
     </r>
     <r>
       <rPr>
@@ -170,17 +459,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Dado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">que o usuário estejá na tela de login
+      <t>Dado</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> que o usuário clique em "Já tenho conta"
 </t>
     </r>
     <r>
@@ -214,6 +503,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">a senha com menos de seis caracteres
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>E</t>
     </r>
     <r>
@@ -224,7 +535,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> a senha com menos de seis caracteres
+      <t xml:space="preserve"> clicar em "entrar"
 </t>
     </r>
     <r>
@@ -269,7 +580,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">que o usuário clique em "Já tenho conta"
+      <t xml:space="preserve">que o usuário clique em "Quero me cadastrar"
 </t>
     </r>
     <r>
@@ -291,7 +602,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> inserir um usuário válido 
+      <t xml:space="preserve"> clicar em "Cadastrar" sem preencher os campos do formulário
 </t>
     </r>
     <r>
@@ -303,28 +614,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clicar em "Entrar"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Então</t>
     </r>
     <r>
@@ -335,7 +624,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ele deve ser redirecionado para a página de adoção de pets</t>
+      <t xml:space="preserve"> deve receber as menssagens de erro "email obrigatório", "nome é obrigatório", "senha é obrigatória" e "confirmação de senha obrigatória" </t>
     </r>
   </si>
   <si>
@@ -370,17 +659,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Quando </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">digitar os os campos email, nome, senha e confirmar sua senha
+      <t>Quando</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> digitar os campos email, nome, senha e confirmar sua senha incorretamente
 </t>
     </r>
     <r>
@@ -392,17 +681,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">E </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">clicar no botão "Cadastrar"
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> clicar em "cadastrar" 
 </t>
     </r>
     <r>
@@ -414,17 +703,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Eentão</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> o usuário deve receber a menssagem de cadastro realizado com sucesso e ser redirecionado para a página de adoção de pets</t>
+      <t>Então</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve ser apresentado as mensagen de erro "email inválido", "mínimo de 3 caracteres", "senha deve ter no mínimo 6 caracteres", "as senhas não combinam"</t>
     </r>
   </si>
   <si>
@@ -437,18 +726,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Dado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que o usuário esteja na tela home do site Adopet
-</t>
+      <t xml:space="preserve">Dado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que o usuário clique em "Quero me cadastrar"</t>
     </r>
     <r>
       <rPr>
@@ -459,18 +747,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Quando </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">o usuário clicar no icone home
-</t>
+      <t xml:space="preserve">
+Quando </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ele inserir um numero no campo "nome"</t>
     </r>
     <r>
       <rPr>
@@ -481,285 +769,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Eentão </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deve ser redirecionado para a página de login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que o usuário esteja na tela home do site Adopet
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Quando </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">o usuário clicar no icone de menssagem
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Então </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>deve ser redirecionado para a página de login</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">que o usuário esteja na tela de cadastro
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quando</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clicar em "Cadastrar" sem preencher os campos do formulário
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Então</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve receber as menssagens de erro "email obrigatório", "nome é obrigatório", "senha é obrigatória" e "confirmação de senha obrigatória" </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dado</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> que o usuário esteja na tela de cadastro
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quando</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> digitar os os campos emai, nome, senha e confirmar sua senha incorretamente 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Então</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve ser apresentado as mensagen de erro "email inválido", "mínimo de 3 caracteres", "senha deve ter no mínimo 6 caracteres", "as senhas não combinam"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">que o usuário esteja na tela de cadastro  
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quando</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  e ele inserir um numero no campo nome
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Então</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deve ser apresentado uma menssagem de "caracter inválido"</t>
+      <t xml:space="preserve">
+Então</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> deve ser apresentado a menssagem de "caracter inválido"</t>
     </r>
   </si>
 </sst>
@@ -792,7 +813,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,7 +828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,12 +1008,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -995,24 +1016,39 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1021,32 +1057,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1365,7 +1386,7 @@
   <dimension ref="A1:D295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1398,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -1391,1798 +1412,1798 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="15" t="s">
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>4</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="10"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
+      <c r="A201" s="10"/>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
+      <c r="A202" s="10"/>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
+      <c r="A203" s="10"/>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
+      <c r="A204" s="10"/>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
+      <c r="A205" s="10"/>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
+      <c r="A207" s="10"/>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
+      <c r="A208" s="10"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
+      <c r="A209" s="10"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
+      <c r="A211" s="10"/>
+      <c r="B211" s="10"/>
+      <c r="C211" s="10"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
+      <c r="A212" s="10"/>
+      <c r="B212" s="10"/>
+      <c r="C212" s="10"/>
+      <c r="D212" s="10"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
+      <c r="A213" s="10"/>
+      <c r="B213" s="10"/>
+      <c r="C213" s="10"/>
+      <c r="D213" s="10"/>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
+      <c r="A216" s="10"/>
+      <c r="B216" s="10"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10"/>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
+      <c r="A218" s="10"/>
+      <c r="B218" s="10"/>
+      <c r="C218" s="10"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
+      <c r="C220" s="10"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
+      <c r="A221" s="10"/>
+      <c r="B221" s="10"/>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
+      <c r="C224" s="10"/>
+      <c r="D224" s="10"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
+      <c r="A225" s="10"/>
+      <c r="B225" s="10"/>
+      <c r="C225" s="10"/>
+      <c r="D225" s="10"/>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="10"/>
+      <c r="D226" s="10"/>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="10"/>
+      <c r="D228" s="10"/>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="10"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="10"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
+      <c r="A232" s="10"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
+      <c r="A233" s="10"/>
+      <c r="B233" s="10"/>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
+      <c r="A234" s="10"/>
+      <c r="B234" s="10"/>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
+      <c r="A235" s="10"/>
+      <c r="B235" s="10"/>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
+      <c r="A236" s="10"/>
+      <c r="B236" s="10"/>
+      <c r="C236" s="10"/>
+      <c r="D236" s="10"/>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
+      <c r="A237" s="10"/>
+      <c r="B237" s="10"/>
+      <c r="C237" s="10"/>
+      <c r="D237" s="10"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
+      <c r="A238" s="10"/>
+      <c r="B238" s="10"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
+      <c r="A239" s="10"/>
+      <c r="B239" s="10"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
+      <c r="A240" s="10"/>
+      <c r="B240" s="10"/>
+      <c r="C240" s="10"/>
+      <c r="D240" s="10"/>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
+      <c r="A241" s="10"/>
+      <c r="B241" s="10"/>
+      <c r="C241" s="10"/>
+      <c r="D241" s="10"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
+      <c r="A242" s="10"/>
+      <c r="B242" s="10"/>
+      <c r="C242" s="10"/>
+      <c r="D242" s="10"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
+      <c r="A243" s="10"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
+      <c r="A244" s="10"/>
+      <c r="B244" s="10"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
+      <c r="A245" s="10"/>
+      <c r="B245" s="10"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
+      <c r="A246" s="10"/>
+      <c r="B246" s="10"/>
+      <c r="C246" s="10"/>
+      <c r="D246" s="10"/>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
+      <c r="A247" s="10"/>
+      <c r="B247" s="10"/>
+      <c r="C247" s="10"/>
+      <c r="D247" s="10"/>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
+      <c r="A248" s="10"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="12"/>
+      <c r="A249" s="10"/>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10"/>
+      <c r="D249" s="10"/>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="12"/>
+      <c r="A250" s="10"/>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="12"/>
+      <c r="A251" s="10"/>
+      <c r="B251" s="10"/>
+      <c r="C251" s="10"/>
+      <c r="D251" s="10"/>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="12"/>
+      <c r="A252" s="10"/>
+      <c r="B252" s="10"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
+      <c r="A253" s="10"/>
+      <c r="B253" s="10"/>
+      <c r="C253" s="10"/>
+      <c r="D253" s="10"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="12"/>
+      <c r="A254" s="10"/>
+      <c r="B254" s="10"/>
+      <c r="C254" s="10"/>
+      <c r="D254" s="10"/>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
+      <c r="A255" s="10"/>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10"/>
+      <c r="D255" s="10"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
+      <c r="A256" s="10"/>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10"/>
+      <c r="D256" s="10"/>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
+      <c r="A257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A258" s="12"/>
-      <c r="B258" s="12"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="12"/>
+      <c r="A258" s="10"/>
+      <c r="B258" s="10"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="10"/>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="12"/>
+      <c r="A259" s="10"/>
+      <c r="B259" s="10"/>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A260" s="12"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="12"/>
+      <c r="A260" s="10"/>
+      <c r="B260" s="10"/>
+      <c r="C260" s="10"/>
+      <c r="D260" s="10"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261" s="12"/>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
+      <c r="A261" s="10"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="12"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="12"/>
+      <c r="A262" s="10"/>
+      <c r="B262" s="10"/>
+      <c r="C262" s="10"/>
+      <c r="D262" s="10"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
-      <c r="B263" s="12"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="12"/>
+      <c r="A263" s="10"/>
+      <c r="B263" s="10"/>
+      <c r="C263" s="10"/>
+      <c r="D263" s="10"/>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264" s="12"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="12"/>
+      <c r="A264" s="10"/>
+      <c r="B264" s="10"/>
+      <c r="C264" s="10"/>
+      <c r="D264" s="10"/>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A265" s="12"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="12"/>
+      <c r="A265" s="10"/>
+      <c r="B265" s="10"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266" s="12"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="12"/>
+      <c r="A266" s="10"/>
+      <c r="B266" s="10"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A267" s="12"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="12"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10"/>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" s="12"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="12"/>
+      <c r="A268" s="10"/>
+      <c r="B268" s="10"/>
+      <c r="C268" s="10"/>
+      <c r="D268" s="10"/>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="12"/>
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10"/>
+      <c r="D270" s="10"/>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
+      <c r="A271" s="10"/>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="12"/>
-      <c r="B272" s="12"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="12"/>
+      <c r="A272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="12"/>
+      <c r="A273" s="10"/>
+      <c r="B273" s="10"/>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" s="12"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="12"/>
+      <c r="A274" s="10"/>
+      <c r="B274" s="10"/>
+      <c r="C274" s="10"/>
+      <c r="D274" s="10"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" s="12"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
+      <c r="A275" s="10"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" s="12"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="12"/>
+      <c r="A276" s="10"/>
+      <c r="B276" s="10"/>
+      <c r="C276" s="10"/>
+      <c r="D276" s="10"/>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="12"/>
+      <c r="A277" s="10"/>
+      <c r="B277" s="10"/>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" s="12"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="12"/>
+      <c r="A278" s="10"/>
+      <c r="B278" s="10"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="12"/>
+      <c r="A279" s="10"/>
+      <c r="B279" s="10"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" s="12"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="12"/>
+      <c r="A280" s="10"/>
+      <c r="B280" s="10"/>
+      <c r="C280" s="10"/>
+      <c r="D280" s="10"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="12"/>
+      <c r="A281" s="10"/>
+      <c r="B281" s="10"/>
+      <c r="C281" s="10"/>
+      <c r="D281" s="10"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="12"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="12"/>
+      <c r="A282" s="10"/>
+      <c r="B282" s="10"/>
+      <c r="C282" s="10"/>
+      <c r="D282" s="10"/>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
+      <c r="A283" s="10"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" s="12"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="12"/>
+      <c r="A284" s="10"/>
+      <c r="B284" s="10"/>
+      <c r="C284" s="10"/>
+      <c r="D284" s="10"/>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="12"/>
+      <c r="A285" s="10"/>
+      <c r="B285" s="10"/>
+      <c r="C285" s="10"/>
+      <c r="D285" s="10"/>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" s="12"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="12"/>
+      <c r="A286" s="10"/>
+      <c r="B286" s="10"/>
+      <c r="C286" s="10"/>
+      <c r="D286" s="10"/>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" s="12"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="12"/>
+      <c r="A287" s="10"/>
+      <c r="B287" s="10"/>
+      <c r="C287" s="10"/>
+      <c r="D287" s="10"/>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="12"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="12"/>
+      <c r="A288" s="10"/>
+      <c r="B288" s="10"/>
+      <c r="C288" s="10"/>
+      <c r="D288" s="10"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
-      <c r="D289" s="12"/>
+      <c r="A289" s="10"/>
+      <c r="B289" s="10"/>
+      <c r="C289" s="10"/>
+      <c r="D289" s="10"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="12"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="12"/>
-      <c r="D290" s="12"/>
+      <c r="A290" s="10"/>
+      <c r="B290" s="10"/>
+      <c r="C290" s="10"/>
+      <c r="D290" s="10"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
-      <c r="D291" s="12"/>
+      <c r="A291" s="10"/>
+      <c r="B291" s="10"/>
+      <c r="C291" s="10"/>
+      <c r="D291" s="10"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" s="12"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="12"/>
-      <c r="D292" s="12"/>
+      <c r="A292" s="10"/>
+      <c r="B292" s="10"/>
+      <c r="C292" s="10"/>
+      <c r="D292" s="10"/>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" s="12"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
+      <c r="A293" s="10"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" s="12"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="12"/>
-      <c r="D294" s="12"/>
+      <c r="A294" s="10"/>
+      <c r="B294" s="10"/>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" s="12"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="12"/>
-      <c r="D295" s="12"/>
+      <c r="A295" s="10"/>
+      <c r="B295" s="10"/>
+      <c r="C295" s="10"/>
+      <c r="D295" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3198,7 +3219,7 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,67 +3245,67 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="B4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="19" t="s">
+    <row r="5" spans="1:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="18" t="s">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="17" t="s">
+      <c r="C6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>9</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/Cenários Site Adopet.xlsx
+++ b/Cenários Site Adopet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b169d1433ded32a3/Área de Trabalho/Carreia Teste/Curso-Alura-QA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="8_{D27B2583-B550-4A04-BC8E-FF88AA5B0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2F8B730-C95D-4584-B903-4C045926D2CC}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="8_{D27B2583-B550-4A04-BC8E-FF88AA5B0BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB392883-C5BB-4B30-9B93-C3926631F180}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{ADC66806-1CC5-4315-B284-C5D538311E4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ADC66806-1CC5-4315-B284-C5D538311E4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sucesso" sheetId="2" r:id="rId1"/>
@@ -177,95 +177,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Dado </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">que o usuário clique em "Já tenho conta"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Quando</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> inserir um usuário e senha válidos 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> clicar em "Entrar"
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Então</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ele deve ser redirecionado para a página de adoção de pets</t>
-    </r>
-  </si>
-  <si>
     <t>002-Register</t>
   </si>
   <si>
@@ -781,6 +692,106 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> deve ser apresentado a menssagem de "caracter inválido"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Dado </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>que o usuário esteja na tela home e clique em "Já tenho conta"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Quando </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">inserir um usuário e senha válidos na tela de login </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clicar em "Entrar"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Então </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ele deve ser redirecionado para a página de adoção “pets”  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
 </sst>
@@ -1052,10 +1063,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1063,11 +1071,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8BA81D-B32B-4256-8522-2F6017635661}">
   <dimension ref="A1:D295"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,7 +1430,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>4</v>
@@ -1427,7 +1438,7 @@
     </row>
     <row r="3" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>10</v>
@@ -1440,26 +1451,26 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>19</v>
+      <c r="A4" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>4</v>
@@ -3218,7 +3229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F99F60-8CCF-4B88-8E7E-585E00085B1E}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
@@ -3245,40 +3256,40 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>18</v>
+      <c r="A4" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>4</v>
@@ -3290,19 +3301,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>9</v>
